--- a/filer/Gantt_Studerende_Slut.xlsx
+++ b/filer/Gantt_Studerende_Slut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Dropbox\DTU\2022_1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBD155-681B-45A6-B8BE-278DD7AB5A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E24F1-0F17-4929-BC57-4DAC735AC0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5EFDB4-6960-4EC7-B0EF-E71F6321B040}"/>
+    <workbookView xWindow="345" yWindow="4485" windowWidth="7500" windowHeight="6870" xr2:uid="{5F5EFDB4-6960-4EC7-B0EF-E71F6321B040}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt_Start" sheetId="2" r:id="rId1"/>
@@ -303,18 +303,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor theme="7" tint="0.59996337778862885"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="lightUp">
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -329,31 +329,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFEBFB8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -685,8 +660,8 @@
   </sheetPr>
   <dimension ref="B2:AG20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,11 +1066,11 @@
         <v>44566</v>
       </c>
       <c r="D10" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="21">
         <f>IF(Projekt_Weekend="Ja",IF(C10&lt;&gt;"",C10+(D10-1),""),IF(C10&lt;&gt;"",WORKDAY(C10,D10-1),""))</f>
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1132,14 +1107,14 @@
       </c>
       <c r="C11" s="19">
         <f>E10+1</f>
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="D11" s="20">
         <v>2</v>
       </c>
       <c r="E11" s="21">
         <f>IF(Projekt_Weekend="Ja",IF(C11&lt;&gt;"",C11+(D11-1),""),IF(C11&lt;&gt;"",WORKDAY(C11,D11-1),""))</f>
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1176,14 +1151,14 @@
       </c>
       <c r="C12" s="19">
         <f>E11+1</f>
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="D12" s="20">
         <v>5</v>
       </c>
       <c r="E12" s="21">
         <f>IF(Projekt_Weekend="Ja",IF(C12&lt;&gt;"",C12+(D12-1),""),IF(C12&lt;&gt;"",WORKDAY(C12,D12-1),""))</f>
-        <v>44585</v>
+        <v>44581</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1405,14 +1380,14 @@
     <mergeCell ref="T6:Z6"/>
     <mergeCell ref="AA6:AG6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10:AG17">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(Opgave_Slut&lt;&gt;"",IF(Projekt_Weekend="Ja",AND(Opgave_Slut&gt;=F$7,Opgave_Start&lt;G$7),AND(Opgave_Slut&gt;=F$7,Opgave_Start&lt;G$7, WEEKDAY(F$7,2)&lt;&gt;6,WEEKDAY(F$7,2)&lt;&gt;7)))</formula>
+  <conditionalFormatting sqref="F7:AG17">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(TODAY()&gt;=F$7,TODAY()&lt;G$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:AG17">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(TODAY()&gt;=F$7,TODAY()&lt;G$7)</formula>
+  <conditionalFormatting sqref="F10:AG17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(Opgave_Slut&lt;&gt;"",IF(Projekt_Weekend="Ja",AND(Opgave_Slut&gt;=F$7,Opgave_Start&lt;G$7),AND(Opgave_Slut&gt;=F$7,Opgave_Start&lt;G$7, WEEKDAY(F$7,2)&lt;&gt;6,WEEKDAY(F$7,2)&lt;&gt;7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
